--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">Monatsbericht</t>
   </si>
@@ -28,13 +28,25 @@
     <t xml:space="preserve">Name</t>
   </si>
   <si>
+    <t xml:space="preserve">Westwind- Eisenbahnservice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Personal ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Boelerstr. 153</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mail</t>
   </si>
   <si>
+    <t xml:space="preserve">58097 Hagen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">planung@westwind-eisenbahnservice.de</t>
   </si>
   <si>
     <t xml:space="preserve">DATUM</t>
@@ -164,12 +176,11 @@
     <numFmt numFmtId="172" formatCode="#,##0\ ;\-#,##0\ "/>
     <numFmt numFmtId="173" formatCode="#,##0.00\ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,59 +201,56 @@
       <sz val="22"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="7"/>
       <name val="Segoe UI"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <name val="Segoe UI"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -283,6 +291,20 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
@@ -290,20 +312,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -362,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -380,26 +388,30 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,7 +423,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,27 +439,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -475,31 +507,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,7 +555,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -535,7 +567,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,16 +579,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -642,9 +678,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>794880</xdr:colOff>
+      <xdr:colOff>794520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -658,34 +694,34 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9266040" y="219960"/>
-          <a:ext cx="3102840" cy="1652400"/>
+          <a:ext cx="3102480" cy="1652040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="12600">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>-360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>530280</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>354960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>426240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>798840</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>365760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Grafik 5" descr="Grafik 5"/>
+        <xdr:cNvPr id="1" name="image1.png 1" descr="image1.png"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -694,50 +730,13 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6315480" y="639000"/>
-          <a:ext cx="2319480" cy="1366920"/>
+          <a:off x="7962840" y="12491640"/>
+          <a:ext cx="3597480" cy="1915920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>743040</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>493560</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>245880</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 7" descr="Grafik 7"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8175600" y="13298760"/>
-          <a:ext cx="3891960" cy="1369800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
+        <a:ln w="12600">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -788,16 +787,16 @@
         <a:srgbClr val="ff00ff"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Soho">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -805,55 +804,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -871,48 +840,12 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -926,8 +859,8 @@
   </sheetPr>
   <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="30" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -957,12 +890,12 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="7"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -974,14 +907,14 @@
     </row>
     <row r="2" customFormat="false" ht="31" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="10"/>
+      <c r="I2" s="11"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -993,19 +926,21 @@
     </row>
     <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="16"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1014,19 +949,21 @@
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="2"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="16"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1035,19 +972,21 @@
     </row>
     <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="16"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1056,19 +995,21 @@
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="16"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1077,89 +1018,89 @@
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="C8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="D8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="E8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="F8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="G8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="H8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="I8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="J8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="K8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="L8" s="25" t="s">
         <v>19</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25" t="str">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31" t="str">
         <f aca="false">IF(COUNTA(N9:O9)=2,(O9:O9-N9:N9)*$M$3,"")</f>
         <v/>
       </c>
@@ -1167,21 +1108,21 @@
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25" t="str">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31" t="str">
         <f aca="false">IF(COUNTA(N10:O10)=2,(O10:O10-N10:N10)*$M$3,"")</f>
         <v/>
       </c>
@@ -1189,21 +1130,21 @@
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="25" t="str">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31" t="str">
         <f aca="false">IF(COUNTA(N11:O11)=2,(O11:O11-N11:N11)*$M$3,"")</f>
         <v/>
       </c>
@@ -1211,21 +1152,21 @@
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25" t="str">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31" t="str">
         <f aca="false">IF(COUNTA(N12:O12)=2,(O12:O12-N12:N12)*$M$3,"")</f>
         <v/>
       </c>
@@ -1233,21 +1174,21 @@
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25" t="str">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="31" t="str">
         <f aca="false">IF(COUNTA(N13:O13)=2,(O13:O13-N13:N13)*$M$3,"")</f>
         <v/>
       </c>
@@ -1255,21 +1196,21 @@
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25" t="str">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="31" t="str">
         <f aca="false">IF(COUNTA(N14:O14)=2,(O14:O14-N14:N14)*$M$3,"")</f>
         <v/>
       </c>
@@ -1277,21 +1218,21 @@
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="33"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1315,66 +1256,66 @@
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2"/>
-      <c r="B17" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30" t="n">
+      <c r="B17" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36" t="n">
         <f aca="false">SUM(D9:D14)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="31" t="n">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37" t="n">
         <f aca="false">SUM(H17)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="31" t="n">
+      <c r="H17" s="37" t="n">
         <f aca="false">SUM(H9:H14)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="31" t="n">
+      <c r="I17" s="37" t="n">
         <f aca="false">SUM(I9:I14)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="31" t="n">
+      <c r="J17" s="37" t="n">
         <f aca="false">SUM(J9:J14)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="31" t="n">
+      <c r="K17" s="37" t="n">
         <f aca="false">SUM(K9:K14)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="31" t="n">
+      <c r="L17" s="37" t="n">
         <f aca="false">SUM(L9:L14)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="32" t="n">
+      <c r="M17" s="38" t="n">
         <f aca="false">SUM(M9:M14)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="40"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="18.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1664,146 +1605,146 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="2"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2"/>
-      <c r="B35" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="45"/>
+      <c r="B35" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2"/>
-      <c r="B36" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36" s="43"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="45"/>
+      <c r="B36" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="2"/>
-      <c r="B37" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="43" t="s">
+      <c r="B37" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="N37" s="43"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="45"/>
+      <c r="F37" s="47"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="51"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="2"/>
-      <c r="B38" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
+      <c r="B38" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="45"/>
+      <c r="B39" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -1812,99 +1753,99 @@
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="2"/>
-      <c r="B40" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="47"/>
+      <c r="B40" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="53"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="0"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2"/>
-      <c r="B41" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="45"/>
+      <c r="B41" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="51"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="N41" s="0"/>
+      <c r="O41" s="55"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
+      <c r="B42" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="N42" s="0"/>
+      <c r="O42" s="55"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="45"/>
+      <c r="B43" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="N43" s="0"/>
+      <c r="O43" s="55"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
@@ -1922,18 +1863,21 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="16"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N45" s="0"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="2"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
+  <mergeCells count="31">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="H35:J35"/>
@@ -1956,6 +1900,7 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="H41:J41"/>
+    <mergeCell ref="O41:O43"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="H42:J42"/>
@@ -1963,6 +1908,9 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="H43:J43"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1" display="planung@westwind-eisenbahnservice.de"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.236111111111111" right="0.236111111111111" top="0.748611111111111" bottom="0.748611111111111" header="0.315277777777778" footer="0.315277777777778"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1970,6 +1918,6 @@
     <oddHeader>&amp;L&amp;K000000          </oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Verbleibend </t>
   </si>
   <si>
-    <t>Award</t>
+    <t>Schichtzulage</t>
   </si>
 </sst>
 </file>

--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Monatsbericht</t>
   </si>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -578,6 +578,9 @@
     </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1915,7 +1918,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="30.0" customHeight="1">
+    <row r="35">
       <c r="A35" s="1"/>
       <c r="B35" s="44" t="s">
         <v>25</v>
@@ -2120,7 +2123,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="30.0" customHeight="1">
+    <row r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="44" t="s">
         <v>40</v>
@@ -2248,11 +2251,13 @@
     </row>
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="B45" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="45"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="46"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -8602,7 +8607,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="H38:J38"/>
@@ -8627,6 +8632,8 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="B40:D40"/>

--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Monatsbericht</t>
   </si>
@@ -118,37 +118,43 @@
     <t xml:space="preserve">Minus Zeit </t>
   </si>
   <si>
-    <t>Gesamtarbeitzeit</t>
+    <t>Ausbildung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€ </t>
   </si>
   <si>
     <t xml:space="preserve">Kranktage Aktuell </t>
   </si>
   <si>
-    <t>Nachtzuschlag 25%</t>
+    <t>Gesamtarbeitzeit</t>
   </si>
   <si>
     <t>Krankentage Gesamt 2024</t>
   </si>
   <si>
+    <t>Nachtzuschlag 25%</t>
+  </si>
+  <si>
     <t>Nachtzuschlag 40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urlaubstage akt. Monat </t>
   </si>
   <si>
     <t>Sonntagszuschläge</t>
   </si>
   <si>
-    <t xml:space="preserve">Urlaubstage akt. Monat </t>
+    <t>Urlaubsanspruch</t>
   </si>
   <si>
     <t>Feiertagszuschläge</t>
   </si>
   <si>
-    <t>Urlaubsanspruch</t>
+    <t xml:space="preserve">Verbleibend </t>
   </si>
   <si>
     <t>Gastfahrt Stunden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verbleibend </t>
   </si>
   <si>
     <t>Schichtzulage</t>
@@ -410,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -576,11 +582,14 @@
     <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1918,7 +1927,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="44" t="s">
         <v>25</v>
@@ -2026,26 +2035,26 @@
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="46"/>
-      <c r="E38" s="47" t="s">
-        <v>30</v>
+      <c r="E38" s="56" t="s">
+        <v>36</v>
       </c>
       <c r="F38" s="46"/>
       <c r="G38" s="48"/>
       <c r="H38" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I38" s="45"/>
       <c r="J38" s="46"/>
       <c r="K38" s="50"/>
       <c r="L38" s="51"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2061,7 +2070,7 @@
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="46"/>
@@ -2071,7 +2080,7 @@
       <c r="F39" s="46"/>
       <c r="G39" s="48"/>
       <c r="H39" s="49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I39" s="45"/>
       <c r="J39" s="46"/>
@@ -2095,7 +2104,7 @@
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="46"/>
@@ -2123,10 +2132,10 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="46"/>
@@ -2136,7 +2145,7 @@
       <c r="F41" s="46"/>
       <c r="G41" s="48"/>
       <c r="H41" s="49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I41" s="45"/>
       <c r="J41" s="46"/>
@@ -2159,7 +2168,7 @@
     <row r="42" ht="30.0" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
@@ -2169,7 +2178,7 @@
       <c r="F42" s="46"/>
       <c r="G42" s="48"/>
       <c r="H42" s="49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="46"/>
@@ -2191,7 +2200,7 @@
     <row r="43" ht="30.0" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
@@ -2201,7 +2210,7 @@
       <c r="F43" s="46"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" s="45"/>
       <c r="J43" s="46"/>
@@ -2223,11 +2232,13 @@
     <row r="44" ht="30.0" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="47"/>
+      <c r="E44" s="47" t="s">
+        <v>30</v>
+      </c>
       <c r="F44" s="46"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2251,8 +2262,8 @@
     </row>
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="56" t="s">
-        <v>20</v>
+      <c r="B45" s="44" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
@@ -2280,11 +2291,13 @@
     </row>
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="B46" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="45"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -7850,7 +7863,13 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+      <c r="F245" s="1"/>
+    </row>
     <row r="246" ht="15.75" customHeight="1"/>
     <row r="247" ht="15.75" customHeight="1"/>
     <row r="248" ht="15.75" customHeight="1"/>
@@ -8607,7 +8626,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="H38:J38"/>
@@ -8621,28 +8640,30 @@
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="E38:F38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="O41:O43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K6"/>

--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -172,7 +172,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ ;\-#,##0\ "/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -240,6 +240,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -261,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border/>
     <border>
       <left/>
@@ -398,6 +403,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -412,11 +433,27 @@
         <color rgb="FF000000"/>
       </right>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -558,10 +595,13 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -570,7 +610,16 @@
     <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -579,17 +628,20 @@
     <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="9" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="23" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1934,24 +1986,24 @@
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="46"/>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="47"/>
+      <c r="F35" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49" t="s">
+      <c r="G35" s="49"/>
+      <c r="H35" s="50" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="45"/>
       <c r="J35" s="46"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49" t="s">
+      <c r="K35" s="51"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="50" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="46"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="52"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -1970,24 +2022,24 @@
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="53"/>
+      <c r="F36" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49" t="s">
+      <c r="G36" s="55"/>
+      <c r="H36" s="50" t="s">
         <v>31</v>
       </c>
       <c r="I36" s="45"/>
       <c r="J36" s="46"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49" t="s">
+      <c r="K36" s="51"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="50" t="s">
         <v>32</v>
       </c>
       <c r="N36" s="46"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="52"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2006,22 +2058,22 @@
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="47"/>
+      <c r="F37" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="49" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="50" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="46"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="52"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2035,26 +2087,26 @@
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="46"/>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="47"/>
+      <c r="F38" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49" t="s">
+      <c r="G38" s="55"/>
+      <c r="H38" s="50" t="s">
         <v>37</v>
       </c>
       <c r="I38" s="45"/>
       <c r="J38" s="46"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2074,18 +2126,18 @@
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="46"/>
-      <c r="E39" s="47" t="s">
+      <c r="E39" s="47"/>
+      <c r="F39" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49" t="s">
+      <c r="G39" s="55"/>
+      <c r="H39" s="50" t="s">
         <v>39</v>
       </c>
       <c r="I39" s="45"/>
       <c r="J39" s="46"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2108,15 +2160,15 @@
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="46"/>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="47"/>
+      <c r="F40" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="53"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="56"/>
+      <c r="K40" s="57"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="O40" s="1"/>
@@ -2139,18 +2191,18 @@
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="47"/>
+      <c r="F41" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49" t="s">
+      <c r="G41" s="55"/>
+      <c r="H41" s="50" t="s">
         <v>42</v>
       </c>
       <c r="I41" s="45"/>
       <c r="J41" s="46"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
       <c r="M41" s="1"/>
       <c r="O41" s="33"/>
       <c r="P41" s="1"/>
@@ -2172,18 +2224,18 @@
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="47" t="s">
+      <c r="E42" s="47"/>
+      <c r="F42" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49" t="s">
+      <c r="G42" s="55"/>
+      <c r="H42" s="50" t="s">
         <v>44</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="46"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
       <c r="M42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2204,18 +2256,18 @@
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="47" t="s">
+      <c r="E43" s="47"/>
+      <c r="F43" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49" t="s">
+      <c r="G43" s="55"/>
+      <c r="H43" s="50" t="s">
         <v>46</v>
       </c>
       <c r="I43" s="45"/>
       <c r="J43" s="46"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
       <c r="M43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2236,10 +2288,10 @@
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="59"/>
+      <c r="F44" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="46"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2267,8 +2319,8 @@
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="46"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2296,8 +2348,8 @@
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="46"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -8626,7 +8678,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="25">
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="H38:J38"/>
@@ -8634,36 +8686,24 @@
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
     <mergeCell ref="M35:N35"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="H42:J42"/>
     <mergeCell ref="H43:J43"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="O41:O43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K6"/>

--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -172,7 +172,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ ;\-#,##0\ "/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -240,11 +240,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -266,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border/>
     <border>
       <left/>
@@ -403,22 +398,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -433,27 +412,11 @@
         <color rgb="FF000000"/>
       </right>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -595,13 +558,10 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -610,16 +570,7 @@
     <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="18" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -628,20 +579,17 @@
     <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="23" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="24" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1986,24 +1934,24 @@
       </c>
       <c r="C35" s="45"/>
       <c r="D35" s="46"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="48" t="s">
+      <c r="E35" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50" t="s">
+      <c r="F35" s="46"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49" t="s">
         <v>27</v>
       </c>
       <c r="I35" s="45"/>
       <c r="J35" s="46"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="50" t="s">
+      <c r="K35" s="50"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="49" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="46"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="52"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="51"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -2022,24 +1970,24 @@
       </c>
       <c r="C36" s="45"/>
       <c r="D36" s="46"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="54" t="s">
+      <c r="E36" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="50" t="s">
+      <c r="F36" s="46"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="49" t="s">
         <v>31</v>
       </c>
       <c r="I36" s="45"/>
       <c r="J36" s="46"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="50" t="s">
+      <c r="K36" s="50"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="49" t="s">
         <v>32</v>
       </c>
       <c r="N36" s="46"/>
-      <c r="O36" s="51"/>
-      <c r="P36" s="52"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="51"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2058,22 +2006,22 @@
       </c>
       <c r="C37" s="45"/>
       <c r="D37" s="46"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="54" t="s">
+      <c r="E37" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="50" t="s">
+      <c r="F37" s="46"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="49" t="s">
         <v>34</v>
       </c>
       <c r="N37" s="46"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="52"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="51"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2087,26 +2035,26 @@
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="45"/>
       <c r="D38" s="46"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="54" t="s">
+      <c r="E38" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="55"/>
-      <c r="H38" s="50" t="s">
+      <c r="F38" s="46"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49" t="s">
         <v>37</v>
       </c>
       <c r="I38" s="45"/>
       <c r="J38" s="46"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2126,18 +2074,18 @@
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="46"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="54" t="s">
+      <c r="E39" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="H39" s="50" t="s">
+      <c r="F39" s="46"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49" t="s">
         <v>39</v>
       </c>
       <c r="I39" s="45"/>
       <c r="J39" s="46"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2160,15 +2108,15 @@
       </c>
       <c r="C40" s="45"/>
       <c r="D40" s="46"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="54" t="s">
+      <c r="E40" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="57"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="53"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="O40" s="1"/>
@@ -2191,18 +2139,18 @@
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="46"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="54" t="s">
+      <c r="E41" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="50" t="s">
+      <c r="F41" s="46"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49" t="s">
         <v>42</v>
       </c>
       <c r="I41" s="45"/>
       <c r="J41" s="46"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="52"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="51"/>
       <c r="M41" s="1"/>
       <c r="O41" s="33"/>
       <c r="P41" s="1"/>
@@ -2224,18 +2172,18 @@
       </c>
       <c r="C42" s="45"/>
       <c r="D42" s="46"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="54" t="s">
+      <c r="E42" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="50" t="s">
+      <c r="F42" s="46"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49" t="s">
         <v>44</v>
       </c>
       <c r="I42" s="45"/>
       <c r="J42" s="46"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -2256,18 +2204,18 @@
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="54" t="s">
+      <c r="E43" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="50" t="s">
+      <c r="F43" s="46"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="49" t="s">
         <v>46</v>
       </c>
       <c r="I43" s="45"/>
       <c r="J43" s="46"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
       <c r="M43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -2288,10 +2236,10 @@
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="60" t="s">
+      <c r="E44" s="47" t="s">
         <v>30</v>
       </c>
+      <c r="F44" s="46"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2319,8 +2267,8 @@
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="46"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2348,8 +2296,8 @@
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="60"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -8678,7 +8626,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="37">
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="H36:J36"/>
     <mergeCell ref="H38:J38"/>
@@ -8686,24 +8634,36 @@
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="M35:N35"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K6"/>

--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -172,7 +172,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ ;\-#,##0\ "/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -240,6 +240,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -261,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border/>
     <border>
       <left/>
@@ -398,6 +403,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -412,11 +433,27 @@
         <color rgb="FF000000"/>
       </right>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -558,10 +595,13 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -570,7 +610,16 @@
     <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="18" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -579,17 +628,20 @@
     <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="9" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="23" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="24" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,7 +685,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>352425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3419475" cy="1914525"/>
@@ -1817,21 +1869,21 @@
     </row>
     <row r="31" ht="30.0" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -1845,21 +1897,21 @@
     </row>
     <row r="32" ht="30.0" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -1873,21 +1925,21 @@
     </row>
     <row r="33" ht="30.0" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -1901,21 +1953,21 @@
     </row>
     <row r="34" ht="30.0" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="1"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -1927,31 +1979,23 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" ht="30.0" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="45"/>
-      <c r="J35" s="46"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="N35" s="46"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="51"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -1965,29 +2009,21 @@
     </row>
     <row r="36" ht="30.0" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="46"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="45"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="N36" s="46"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="51"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -2001,27 +2037,21 @@
     </row>
     <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="N37" s="46"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="51"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -2035,27 +2065,21 @@
     </row>
     <row r="38" ht="30.0" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="45"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="45"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="1"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -2069,23 +2093,17 @@
     </row>
     <row r="39" ht="30.0" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="45"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -2103,22 +2121,19 @@
     </row>
     <row r="40" ht="30.0" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="53"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -2132,27 +2147,22 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" ht="30.0" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="I41" s="45"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="51"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="O41" s="33"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2167,24 +2177,20 @@
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="45"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="I42" s="45"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="1"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2197,27 +2203,31 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" ht="30.0" customHeight="1">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="44" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="47" t="s">
-        <v>30</v>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48" t="s">
+        <v>26</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="49" t="s">
-        <v>46</v>
+      <c r="G43" s="49"/>
+      <c r="H43" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="I43" s="45"/>
       <c r="J43" s="46"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="49"/>
+      <c r="M43" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="N43" s="46"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="52"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -2232,23 +2242,28 @@
     <row r="44" ht="30.0" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="44" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="47" t="s">
+      <c r="E44" s="53"/>
+      <c r="F44" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="45"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N44" s="46"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="52"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -2263,21 +2278,26 @@
     <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="44" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
       <c r="E45" s="47"/>
-      <c r="F45" s="46"/>
+      <c r="F45" s="54" t="s">
+        <v>30</v>
+      </c>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="46"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="52"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -2292,21 +2312,25 @@
     <row r="46" ht="30.0" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="44" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
       <c r="E46" s="47"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
+      <c r="F46" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="I46" s="45"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2321,17 +2345,23 @@
     </row>
     <row r="47" ht="30.0" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="B47" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="I47" s="45"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -2349,19 +2379,22 @@
     </row>
     <row r="48" ht="30.0" customHeight="1">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="B48" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="54" t="s">
+        <v>30</v>
+      </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="57"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
@@ -2375,22 +2408,27 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" ht="30.0" customHeight="1">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="B49" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="45"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="O49" s="33"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2405,20 +2443,24 @@
     </row>
     <row r="50" ht="30.0" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="B50" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="55"/>
+      <c r="H50" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" s="45"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2433,20 +2475,24 @@
     </row>
     <row r="51" ht="30.0" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="B51" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="55"/>
+      <c r="H51" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="45"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2461,11 +2507,15 @@
     </row>
     <row r="52" ht="30.0" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="B52" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="60" t="s">
+        <v>30</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2473,7 +2523,6 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
@@ -2489,11 +2538,13 @@
     </row>
     <row r="53" ht="30.0" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="B53" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="45"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="62"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2501,7 +2552,6 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
@@ -2517,11 +2567,13 @@
     </row>
     <row r="54" ht="30.0" customHeight="1">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="B54" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="45"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="60"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -7863,21 +7915,237 @@
       <c r="Y244" s="1"/>
       <c r="Z244" s="1"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" ht="30.0" customHeight="1">
+      <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
+      <c r="G245" s="1"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="1"/>
+      <c r="J245" s="1"/>
+      <c r="K245" s="1"/>
+      <c r="L245" s="1"/>
+      <c r="M245" s="1"/>
+      <c r="N245" s="1"/>
+      <c r="O245" s="1"/>
+      <c r="P245" s="1"/>
+      <c r="Q245" s="1"/>
+      <c r="R245" s="1"/>
+      <c r="S245" s="1"/>
+      <c r="T245" s="1"/>
+      <c r="U245" s="1"/>
+      <c r="V245" s="1"/>
+      <c r="W245" s="1"/>
+      <c r="X245" s="1"/>
+      <c r="Y245" s="1"/>
+      <c r="Z245" s="1"/>
+    </row>
+    <row r="246" ht="30.0" customHeight="1">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+      <c r="F246" s="1"/>
+      <c r="G246" s="1"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="1"/>
+      <c r="J246" s="1"/>
+      <c r="K246" s="1"/>
+      <c r="L246" s="1"/>
+      <c r="M246" s="1"/>
+      <c r="N246" s="1"/>
+      <c r="O246" s="1"/>
+      <c r="P246" s="1"/>
+      <c r="Q246" s="1"/>
+      <c r="R246" s="1"/>
+      <c r="S246" s="1"/>
+      <c r="T246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="1"/>
+      <c r="W246" s="1"/>
+      <c r="X246" s="1"/>
+      <c r="Y246" s="1"/>
+      <c r="Z246" s="1"/>
+    </row>
+    <row r="247" ht="30.0" customHeight="1">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+      <c r="F247" s="1"/>
+      <c r="G247" s="1"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="1"/>
+      <c r="J247" s="1"/>
+      <c r="K247" s="1"/>
+      <c r="L247" s="1"/>
+      <c r="M247" s="1"/>
+      <c r="N247" s="1"/>
+      <c r="O247" s="1"/>
+      <c r="P247" s="1"/>
+      <c r="Q247" s="1"/>
+      <c r="R247" s="1"/>
+      <c r="S247" s="1"/>
+      <c r="T247" s="1"/>
+      <c r="U247" s="1"/>
+      <c r="V247" s="1"/>
+      <c r="W247" s="1"/>
+      <c r="X247" s="1"/>
+      <c r="Y247" s="1"/>
+      <c r="Z247" s="1"/>
+    </row>
+    <row r="248" ht="30.0" customHeight="1">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+      <c r="F248" s="1"/>
+      <c r="G248" s="1"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="1"/>
+      <c r="J248" s="1"/>
+      <c r="K248" s="1"/>
+      <c r="L248" s="1"/>
+      <c r="M248" s="1"/>
+      <c r="N248" s="1"/>
+      <c r="O248" s="1"/>
+      <c r="P248" s="1"/>
+      <c r="Q248" s="1"/>
+      <c r="R248" s="1"/>
+      <c r="S248" s="1"/>
+      <c r="T248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="1"/>
+      <c r="W248" s="1"/>
+      <c r="X248" s="1"/>
+      <c r="Y248" s="1"/>
+      <c r="Z248" s="1"/>
+    </row>
+    <row r="249" ht="30.0" customHeight="1">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+      <c r="F249" s="1"/>
+      <c r="G249" s="1"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="1"/>
+      <c r="J249" s="1"/>
+      <c r="K249" s="1"/>
+      <c r="L249" s="1"/>
+      <c r="M249" s="1"/>
+      <c r="N249" s="1"/>
+      <c r="O249" s="1"/>
+      <c r="P249" s="1"/>
+      <c r="Q249" s="1"/>
+      <c r="R249" s="1"/>
+      <c r="S249" s="1"/>
+      <c r="T249" s="1"/>
+      <c r="U249" s="1"/>
+      <c r="V249" s="1"/>
+      <c r="W249" s="1"/>
+      <c r="X249" s="1"/>
+      <c r="Y249" s="1"/>
+      <c r="Z249" s="1"/>
+    </row>
+    <row r="250" ht="30.0" customHeight="1">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+      <c r="F250" s="1"/>
+      <c r="G250" s="1"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="1"/>
+      <c r="J250" s="1"/>
+      <c r="K250" s="1"/>
+      <c r="L250" s="1"/>
+      <c r="M250" s="1"/>
+      <c r="N250" s="1"/>
+      <c r="O250" s="1"/>
+      <c r="P250" s="1"/>
+      <c r="Q250" s="1"/>
+      <c r="R250" s="1"/>
+      <c r="S250" s="1"/>
+      <c r="T250" s="1"/>
+      <c r="U250" s="1"/>
+      <c r="V250" s="1"/>
+      <c r="W250" s="1"/>
+      <c r="X250" s="1"/>
+      <c r="Y250" s="1"/>
+      <c r="Z250" s="1"/>
+    </row>
+    <row r="251" ht="30.0" customHeight="1">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+      <c r="F251" s="1"/>
+      <c r="G251" s="1"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="1"/>
+      <c r="J251" s="1"/>
+      <c r="K251" s="1"/>
+      <c r="L251" s="1"/>
+      <c r="M251" s="1"/>
+      <c r="N251" s="1"/>
+      <c r="O251" s="1"/>
+      <c r="P251" s="1"/>
+      <c r="Q251" s="1"/>
+      <c r="R251" s="1"/>
+      <c r="S251" s="1"/>
+      <c r="T251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="1"/>
+      <c r="W251" s="1"/>
+      <c r="X251" s="1"/>
+      <c r="Y251" s="1"/>
+      <c r="Z251" s="1"/>
+    </row>
+    <row r="252" ht="30.0" customHeight="1">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+      <c r="F252" s="1"/>
+      <c r="G252" s="1"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="1"/>
+      <c r="J252" s="1"/>
+      <c r="K252" s="1"/>
+      <c r="L252" s="1"/>
+      <c r="M252" s="1"/>
+      <c r="N252" s="1"/>
+      <c r="O252" s="1"/>
+      <c r="P252" s="1"/>
+      <c r="Q252" s="1"/>
+      <c r="R252" s="1"/>
+      <c r="S252" s="1"/>
+      <c r="T252" s="1"/>
+      <c r="U252" s="1"/>
+      <c r="V252" s="1"/>
+      <c r="W252" s="1"/>
+      <c r="X252" s="1"/>
+      <c r="Y252" s="1"/>
+      <c r="Z252" s="1"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+      <c r="F253" s="1"/>
+    </row>
     <row r="254" ht="15.75" customHeight="1"/>
     <row r="255" ht="15.75" customHeight="1"/>
     <row r="256" ht="15.75" customHeight="1"/>
@@ -8625,45 +8893,41 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H41:J41"/>
+  <mergeCells count="25">
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H49:J49"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O41:O43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="O49:O51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K6"/>

--- a/excel_python/test.xlsx
+++ b/excel_python/test.xlsx
@@ -172,7 +172,7 @@
     <numFmt numFmtId="168" formatCode="#,##0\ ;\-#,##0\ "/>
     <numFmt numFmtId="169" formatCode="#,##0.00\ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -240,11 +240,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -266,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border/>
     <border>
       <left/>
@@ -400,14 +395,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -453,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -595,13 +582,13 @@
     <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -610,16 +597,13 @@
     <xf borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="18" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -631,16 +615,16 @@
     <xf borderId="16" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="22" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="23" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2210,10 +2194,10 @@
       </c>
       <c r="C43" s="45"/>
       <c r="D43" s="46"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48" t="s">
+      <c r="E43" s="47" t="s">
         <v>26</v>
       </c>
+      <c r="F43" s="48"/>
       <c r="G43" s="49"/>
       <c r="H43" s="50" t="s">
         <v>27</v>
@@ -2246,11 +2230,11 @@
       </c>
       <c r="C44" s="45"/>
       <c r="D44" s="46"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="54" t="s">
+      <c r="E44" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="55"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="54"/>
       <c r="H44" s="50" t="s">
         <v>31</v>
       </c>
@@ -2282,16 +2266,16 @@
       </c>
       <c r="C45" s="45"/>
       <c r="D45" s="46"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="54" t="s">
+      <c r="E45" s="53" t="s">
         <v>30</v>
       </c>
+      <c r="F45" s="48"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="54"/>
       <c r="M45" s="50" t="s">
         <v>34</v>
       </c>
@@ -2316,11 +2300,11 @@
       </c>
       <c r="C46" s="45"/>
       <c r="D46" s="46"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="54" t="s">
+      <c r="E46" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="55"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="54"/>
       <c r="H46" s="50" t="s">
         <v>37</v>
       </c>
@@ -2328,9 +2312,9 @@
       <c r="J46" s="46"/>
       <c r="K46" s="51"/>
       <c r="L46" s="52"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2350,11 +2334,11 @@
       </c>
       <c r="C47" s="45"/>
       <c r="D47" s="46"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="54" t="s">
+      <c r="E47" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="55"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="50" t="s">
         <v>39</v>
       </c>
@@ -2384,15 +2368,15 @@
       </c>
       <c r="C48" s="45"/>
       <c r="D48" s="46"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="54" t="s">
+      <c r="E48" s="53" t="s">
         <v>30</v>
       </c>
+      <c r="F48" s="48"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="57"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="56"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="O48" s="1"/>
@@ -2415,11 +2399,11 @@
       </c>
       <c r="C49" s="45"/>
       <c r="D49" s="46"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="54" t="s">
+      <c r="E49" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G49" s="55"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="50" t="s">
         <v>42</v>
       </c>
@@ -2448,11 +2432,11 @@
       </c>
       <c r="C50" s="45"/>
       <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="54" t="s">
+      <c r="E50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G50" s="55"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="54"/>
       <c r="H50" s="50" t="s">
         <v>44</v>
       </c>
@@ -2480,11 +2464,11 @@
       </c>
       <c r="C51" s="45"/>
       <c r="D51" s="46"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="54" t="s">
+      <c r="E51" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="55"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="50" t="s">
         <v>46</v>
       </c>
@@ -2512,10 +2496,10 @@
       </c>
       <c r="C52" s="45"/>
       <c r="D52" s="46"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="60" t="s">
+      <c r="E52" s="58" t="s">
         <v>30</v>
       </c>
+      <c r="F52" s="46"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2543,8 +2527,8 @@
       </c>
       <c r="C53" s="45"/>
       <c r="D53" s="46"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="62"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2572,8 +2556,8 @@
       </c>
       <c r="C54" s="45"/>
       <c r="D54" s="46"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="60"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -8902,32 +8886,44 @@
     <row r="1007" ht="15.75" customHeight="1"/>
     <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="37">
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="H44:J44"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="M43:N43"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="O49:O51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E54:F54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="K6"/>
